--- a/Thresholding/Results/HK_R_acc_LT.xlsx
+++ b/Thresholding/Results/HK_R_acc_LT.xlsx
@@ -13,7 +13,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -69,247 +84,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>84.935755427558703</v>
+        <v>87.39746457867264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>85.999113867966329</v>
+        <v>87.695749440715886</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>86.087727071333632</v>
+        <v>88.441461595824009</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>89.720868409392992</v>
+        <v>91.349739000745714</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>90.474080638015067</v>
+        <v>91.648023862788961</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>90.252547629596819</v>
+        <v>91.648023862788961</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>80.416482055826322</v>
+        <v>78.374347501864278</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>81.745680106335854</v>
+        <v>80.536912751677846</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>81.214000886132027</v>
+        <v>80.686055182699477</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>80.283562250775361</v>
+        <v>78.523489932885909</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>79.751883030571562</v>
+        <v>81.282624906785983</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>82.498892334957901</v>
+        <v>84.041759880686044</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>80.50509525919361</v>
+        <v>79.791200596569723</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>80.549401860877268</v>
+        <v>79.716629381058908</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>82.764731945059808</v>
+        <v>82.102908277404921</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>80.50509525919361</v>
+        <v>81.058911260253538</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>81.922906513070444</v>
+        <v>83.743475018642798</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>87.284005316792204</v>
+        <v>87.322893363161825</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>90.429774036331409</v>
+        <v>88.73974645786727</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>90.784226849800618</v>
+        <v>89.112602535421331</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>90.739920248116974</v>
+        <v>88.814317673378071</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>84.09392999556934</v>
+        <v>87.173750932140194</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>87.727071333628714</v>
+        <v>90.007457121551084</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>87.372618520159506</v>
+        <v>89.932885906040269</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>83.916703588834736</v>
+        <v>84.41461595824012</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>83.473637571998225</v>
+        <v>84.190902311707688</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>83.872396987151092</v>
+        <v>84.489187173750935</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>82.764731945059808</v>
+        <v>82.102908277404921</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>82.055826318121404</v>
+        <v>81.282624906785983</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>81.834293309703142</v>
+        <v>82.177479492915737</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>90.739920248116974</v>
+        <v>88.292319164802393</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>93.752769162605233</v>
+        <v>94.034302759134974</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>92.778023925564909</v>
+        <v>91.648023862788961</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>88.037217545414265</v>
+        <v>86.577181208053688</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>92.246344705361096</v>
+        <v>93.586875466070097</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>82.897651750110768</v>
+        <v>83.22147651006712</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>89.144882587505535</v>
+        <v>90.23117076808353</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>85.644661054497121</v>
+        <v>86.204325130499626</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>84.714222419140455</v>
+        <v>87.099179716629379</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>81.524147097917592</v>
+        <v>81.208053691275168</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>82.055826318121404</v>
+        <v>81.357196122296799</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>81.346920691182987</v>
+        <v>79.716629381058908</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>81.701373504652196</v>
+        <v>80.462341536167031</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>84.758529020824099</v>
+        <v>84.787472035794181</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>86.220646876384578</v>
+        <v>84.041759880686044</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>80.903854674346476</v>
+        <v>81.133482475764353</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>82.321665928223311</v>
+        <v>81.133482475764353</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>81.789986708019484</v>
+        <v>81.357196122296799</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/HK_R_acc_LT.xlsx
+++ b/Thresholding/Results/HK_R_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -84,247 +87,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>87.39746457867264</v>
+        <v>84.935755427558703</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>87.695749440715886</v>
+        <v>85.999113867966329</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>88.441461595824009</v>
+        <v>86.087727071333632</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>91.349739000745714</v>
+        <v>89.720868409392992</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>91.648023862788961</v>
+        <v>90.474080638015067</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>91.648023862788961</v>
+        <v>90.252547629596819</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>78.374347501864278</v>
+        <v>80.416482055826322</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>80.536912751677846</v>
+        <v>81.745680106335854</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>80.686055182699477</v>
+        <v>81.214000886132027</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>78.523489932885909</v>
+        <v>80.283562250775361</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>81.282624906785983</v>
+        <v>79.751883030571562</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>84.041759880686044</v>
+        <v>82.498892334957901</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>79.791200596569723</v>
+        <v>80.50509525919361</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>79.716629381058908</v>
+        <v>80.549401860877268</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>82.102908277404921</v>
+        <v>82.764731945059808</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>81.058911260253538</v>
+        <v>80.50509525919361</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>83.743475018642798</v>
+        <v>81.922906513070444</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>87.322893363161825</v>
+        <v>87.284005316792204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>88.73974645786727</v>
+        <v>90.429774036331409</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>89.112602535421331</v>
+        <v>90.784226849800618</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>88.814317673378071</v>
+        <v>90.739920248116974</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>87.173750932140194</v>
+        <v>84.09392999556934</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>90.007457121551084</v>
+        <v>87.727071333628714</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>89.932885906040269</v>
+        <v>87.372618520159506</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>84.41461595824012</v>
+        <v>83.916703588834736</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>84.190902311707688</v>
+        <v>83.473637571998225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>84.489187173750935</v>
+        <v>83.872396987151092</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>82.102908277404921</v>
+        <v>82.764731945059808</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>81.282624906785983</v>
+        <v>82.055826318121404</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>82.177479492915737</v>
+        <v>81.834293309703142</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>88.292319164802393</v>
+        <v>90.739920248116974</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>94.034302759134974</v>
+        <v>93.752769162605233</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>91.648023862788961</v>
+        <v>92.778023925564909</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>86.577181208053688</v>
+        <v>88.037217545414265</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>93.586875466070097</v>
+        <v>92.246344705361096</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>83.22147651006712</v>
+        <v>82.897651750110768</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>90.23117076808353</v>
+        <v>89.144882587505535</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>86.204325130499626</v>
+        <v>85.644661054497121</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>87.099179716629379</v>
+        <v>84.714222419140455</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>81.208053691275168</v>
+        <v>81.524147097917592</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>81.357196122296799</v>
+        <v>82.055826318121404</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>79.716629381058908</v>
+        <v>81.346920691182987</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>80.462341536167031</v>
+        <v>81.701373504652196</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>84.787472035794181</v>
+        <v>84.758529020824099</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>84.041759880686044</v>
+        <v>86.220646876384578</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>81.133482475764353</v>
+        <v>80.903854674346476</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>81.133482475764353</v>
+        <v>82.321665928223311</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>81.357196122296799</v>
+        <v>81.789986708019484</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/HK_R_acc_LT.xlsx
+++ b/Thresholding/Results/HK_R_acc_LT.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -87,7 +93,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Results/HK_R_acc_LT.xlsx
+++ b/Thresholding/Results/HK_R_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -93,247 +96,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>84.935755427558703</v>
+        <v>87.39746457867264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>85.999113867966329</v>
+        <v>87.695749440715886</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>86.087727071333632</v>
+        <v>88.441461595824009</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>89.720868409392992</v>
+        <v>91.349739000745714</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>90.474080638015067</v>
+        <v>91.648023862788961</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>90.252547629596819</v>
+        <v>91.648023862788961</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>80.416482055826322</v>
+        <v>78.374347501864278</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>81.745680106335854</v>
+        <v>80.536912751677846</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>81.214000886132027</v>
+        <v>80.686055182699477</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>80.283562250775361</v>
+        <v>78.523489932885909</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>79.751883030571562</v>
+        <v>81.282624906785983</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>82.498892334957901</v>
+        <v>84.041759880686044</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>80.50509525919361</v>
+        <v>79.791200596569723</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>80.549401860877268</v>
+        <v>79.716629381058908</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>82.764731945059808</v>
+        <v>82.102908277404921</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>80.50509525919361</v>
+        <v>81.058911260253538</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>81.922906513070444</v>
+        <v>83.743475018642798</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>87.284005316792204</v>
+        <v>87.322893363161825</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>90.429774036331409</v>
+        <v>88.73974645786727</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>90.784226849800618</v>
+        <v>89.112602535421331</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>90.739920248116974</v>
+        <v>88.814317673378071</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>84.09392999556934</v>
+        <v>87.173750932140194</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>87.727071333628714</v>
+        <v>90.007457121551084</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>87.372618520159506</v>
+        <v>89.932885906040269</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>83.916703588834736</v>
+        <v>84.41461595824012</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>83.473637571998225</v>
+        <v>84.190902311707688</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>83.872396987151092</v>
+        <v>84.489187173750935</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>82.764731945059808</v>
+        <v>82.102908277404921</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>82.055826318121404</v>
+        <v>81.282624906785983</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>81.834293309703142</v>
+        <v>82.177479492915737</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>90.739920248116974</v>
+        <v>88.292319164802393</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>93.752769162605233</v>
+        <v>94.034302759134974</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>92.778023925564909</v>
+        <v>91.648023862788961</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>88.037217545414265</v>
+        <v>86.577181208053688</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>92.246344705361096</v>
+        <v>93.586875466070097</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>82.897651750110768</v>
+        <v>83.22147651006712</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>89.144882587505535</v>
+        <v>90.23117076808353</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>85.644661054497121</v>
+        <v>86.204325130499626</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>84.714222419140455</v>
+        <v>87.099179716629379</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>81.524147097917592</v>
+        <v>81.208053691275168</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>82.055826318121404</v>
+        <v>81.357196122296799</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>81.346920691182987</v>
+        <v>79.716629381058908</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>81.701373504652196</v>
+        <v>80.462341536167031</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>84.758529020824099</v>
+        <v>84.787472035794181</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>86.220646876384578</v>
+        <v>84.041759880686044</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>80.903854674346476</v>
+        <v>81.133482475764353</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>82.321665928223311</v>
+        <v>81.133482475764353</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>81.789986708019484</v>
+        <v>81.357196122296799</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/HK_R_acc_LT.xlsx
+++ b/Thresholding/Results/HK_R_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -96,7 +99,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Results/HK_R_acc_LT.xlsx
+++ b/Thresholding/Results/HK_R_acc_LT.xlsx
@@ -13,7 +13,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -99,247 +114,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>87.39746457867264</v>
+        <v>57.869742198100404</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>87.695749440715886</v>
+        <v>58.208955223880601</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>88.441461595824009</v>
+        <v>58.412483039348707</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>91.349739000745714</v>
+        <v>57.394843962008146</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>91.648023862788961</v>
+        <v>60.651289009497965</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>91.648023862788961</v>
+        <v>60.651289009497965</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>78.374347501864278</v>
+        <v>55.223880597014926</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>80.536912751677846</v>
+        <v>56.580732700135684</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>80.686055182699477</v>
+        <v>57.055630936227949</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>78.523489932885909</v>
+        <v>55.970149253731336</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>81.282624906785983</v>
+        <v>56.919945725915881</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>84.041759880686044</v>
+        <v>56.309362279511532</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>79.791200596569723</v>
+        <v>53.79918588873813</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>79.716629381058908</v>
+        <v>53.188602442333789</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>82.102908277404921</v>
+        <v>54.613297150610585</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>81.058911260253538</v>
+        <v>55.156037991858888</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>83.743475018642798</v>
+        <v>57.191316146540025</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>87.322893363161825</v>
+        <v>57.055630936227949</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>88.73974645786727</v>
+        <v>58.887381275440973</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>89.112602535421331</v>
+        <v>59.905020352781548</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>88.814317673378071</v>
+        <v>60.040705563093624</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>87.173750932140194</v>
+        <v>59.362279511533245</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>90.007457121551084</v>
+        <v>60.447761194029844</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>89.932885906040269</v>
+        <v>60.719131614653996</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>84.41461595824012</v>
+        <v>59.633649932157397</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>84.190902311707688</v>
+        <v>57.191316146540025</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>84.489187173750935</v>
+        <v>58.00542740841248</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>82.102908277404921</v>
+        <v>53.45997286295794</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>81.282624906785983</v>
+        <v>53.324287652645864</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>82.177479492915737</v>
+        <v>51.017639077340569</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>88.292319164802393</v>
+        <v>62.550881953867034</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>94.034302759134974</v>
+        <v>60.854816824966072</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>91.648023862788961</v>
+        <v>60.854816824966072</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>86.577181208053688</v>
+        <v>59.497964721845321</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>93.586875466070097</v>
+        <v>60.58344640434192</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>83.22147651006712</v>
+        <v>52.51017639077341</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>90.23117076808353</v>
+        <v>61.668928086838534</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>86.204325130499626</v>
+        <v>58.412483039348707</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>87.099179716629379</v>
+        <v>58.208955223880601</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>81.208053691275168</v>
+        <v>57.327001356852101</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>81.357196122296799</v>
+        <v>53.663500678426054</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>79.716629381058908</v>
+        <v>54.274084124830388</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>80.462341536167031</v>
+        <v>54.816824966078691</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>84.787472035794181</v>
+        <v>56.784260515603805</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>84.041759880686044</v>
+        <v>56.648575305291729</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>81.133482475764353</v>
+        <v>55.495251017639077</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>81.133482475764353</v>
+        <v>53.120759837177744</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>81.357196122296799</v>
+        <v>56.71641791044776</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/HK_R_acc_LT.xlsx
+++ b/Thresholding/Results/HK_R_acc_LT.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LT</t>
+  </si>
   <si>
     <t>HK_R_acc_LT</t>
   </si>
@@ -114,247 +120,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>57.869742198100404</v>
+        <v>85.022385022385023</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>58.208955223880601</v>
+        <v>85.714285714285708</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>58.412483039348707</v>
+        <v>86.080586080586087</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>57.394843962008146</v>
+        <v>88.970288970288962</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>60.651289009497965</v>
+        <v>89.662189662189661</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>60.651289009497965</v>
+        <v>89.417989417989418</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>55.223880597014926</v>
+        <v>80.138380138380143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>56.580732700135684</v>
+        <v>81.277981277981283</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>57.055630936227949</v>
+        <v>81.03378103378104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>55.970149253731336</v>
+        <v>80.545380545380539</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>56.919945725915881</v>
+        <v>79.446479446479444</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>56.309362279511532</v>
+        <v>81.847781847781846</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>53.79918588873813</v>
+        <v>80.219780219780219</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>53.188602442333789</v>
+        <v>80.504680504680508</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>54.613297150610585</v>
+        <v>82.4989824989825</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>55.156037991858888</v>
+        <v>79.93487993487993</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>57.191316146540025</v>
+        <v>81.522181522181526</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>57.055630936227949</v>
+        <v>86.853886853886848</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>58.887381275440973</v>
+        <v>90.476190476190482</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>59.905020352781548</v>
+        <v>90.923890923890923</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>60.040705563093624</v>
+        <v>90.516890516890513</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>59.362279511533245</v>
+        <v>83.597883597883595</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>60.447761194029844</v>
+        <v>86.65038665038665</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>60.719131614653996</v>
+        <v>86.080586080586087</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>59.633649932157397</v>
+        <v>83.801383801383793</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>57.191316146540025</v>
+        <v>83.068783068783063</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>58.00542740841248</v>
+        <v>83.597883597883595</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>53.45997286295794</v>
+        <v>81.400081400081405</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>53.324287652645864</v>
+        <v>80.708180708180706</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>51.017639077340569</v>
+        <v>80.341880341880341</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>62.550881953867034</v>
+        <v>89.865689865689873</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>60.854816824966072</v>
+        <v>93.121693121693113</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>60.854816824966072</v>
+        <v>92.673992673992672</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>59.497964721845321</v>
+        <v>87.179487179487182</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>60.58344640434192</v>
+        <v>91.656491656491653</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>52.51017639077341</v>
+        <v>82.539682539682531</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>61.668928086838534</v>
+        <v>87.993487993487989</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>58.412483039348707</v>
+        <v>85.144485144485145</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>58.208955223880601</v>
+        <v>84.167684167684172</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>57.327001356852101</v>
+        <v>80.504680504680508</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>53.663500678426054</v>
+        <v>81.725681725681724</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>54.274084124830388</v>
+        <v>81.359381359381359</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>54.816824966078691</v>
+        <v>81.359381359381359</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>56.784260515603805</v>
+        <v>84.126984126984127</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>56.648575305291729</v>
+        <v>85.592185592185587</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>55.495251017639077</v>
+        <v>79.812779812779809</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>53.120759837177744</v>
+        <v>81.196581196581192</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>56.71641791044776</v>
+        <v>81.03378103378104</v>
       </c>
     </row>
   </sheetData>
